--- a/Output/Cuadros/1. OOSS/cuadro5.xlsx
+++ b/Output/Cuadros/1. OOSS/cuadro5.xlsx
@@ -1,21 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - Instituto Nacional de Estadisticas\GitHub\OBSERVATORIO SINDICAL\COMPENDIOS_DT\Output\Cuadros\1. OOSS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_EF62FED28F79A8D366075C52F37BD2721ACC8DB4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{84B20665-662E-4E7C-872E-6AFEFBFC58F3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+  <si>
+    <t>Rama.Actividad.Económica</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>Actividades  no  especiftcadas</t>
+  </si>
+  <si>
+    <t>hombres</t>
+  </si>
+  <si>
+    <t>Agricultura  y  pesca</t>
+  </si>
+  <si>
+    <t>Comercio</t>
+  </si>
+  <si>
+    <t>Construcción</t>
+  </si>
+  <si>
+    <t>Electricidad,  gas  y  agua</t>
+  </si>
+  <si>
+    <t>Establecimientos  ftnancieros</t>
+  </si>
+  <si>
+    <t>Industria</t>
+  </si>
+  <si>
+    <t>Minería</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Transporte  y  comunicaciones</t>
+  </si>
+  <si>
+    <t>mujeres</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,6 +135,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,25 +166,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +269,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +321,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,1491 +514,1368 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:N21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Rama.Actividad.Económica</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>sexo</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Actividades  no  especiftcadas</t>
-        </is>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2">
         <v>26061</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>15784</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>12776</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>2707</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>3824</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <v>4526</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>9269</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>11959</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="2">
         <v>16685</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="2">
         <v>20808</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="2">
         <v>48370</v>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>hombres</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Agricultura  y  pesca</t>
-        </is>
-      </c>
-      <c r="B3">
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2">
         <v>54297</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>60111</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>59415</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>57340</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>53706</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>54302</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>52431</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>54478</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>55077</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>50760</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>50607</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>49771</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>49638</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>48700</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>53610</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>55604</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <v>51139</v>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>hombres</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Comercio</t>
-        </is>
-      </c>
-      <c r="B4">
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2">
         <v>63276</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>68805</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>69523</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>69667</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>78683</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>74023</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>86594</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>93084</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>100134</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>102538</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>111723</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>117204</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>117715</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>117202</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>115915</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>112432</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>108715</v>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>hombres</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Construcción</t>
-        </is>
-      </c>
-      <c r="B5">
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2">
         <v>51511</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>55045</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>52880</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>51948</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>56108</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>50648</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>68149</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>63816</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>59420</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>52891</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>50199</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>34665</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>49327</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>41941</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <v>62891</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <v>56534</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="2">
         <v>44070</v>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>hombres</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Electricidad,  gas  y  agua</t>
-        </is>
-      </c>
-      <c r="B6">
+      <c r="S5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
         <v>8676</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>9085</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>8016</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>7381</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>7130</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>5934</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>7439</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>7882</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>8521</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>9131</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>9040</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>9083</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>9724</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <v>10047</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="2">
         <v>10461</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="2">
         <v>10909</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="2">
         <v>15838</v>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>hombres</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Establecimientos  ftnancieros</t>
-        </is>
-      </c>
-      <c r="B7">
+      <c r="S6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
         <v>23153</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>26336</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>25428</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>22744</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>24110</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>27634</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>31970</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>32526</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>19161</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>49644</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>52256</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>55004</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>52440</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>55471</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <v>59578</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <v>58576</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="2">
         <v>25420</v>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>hombres</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Industria</t>
-        </is>
-      </c>
-      <c r="B8">
+      <c r="S7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2">
         <v>88815</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>96892</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>93980</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>103323</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>96747</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>101357</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>97796</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>100740</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>92548</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>94617</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>95650</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>97129</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>98321</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <v>100245</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="2">
         <v>99482</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="2">
         <v>104634</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="2">
         <v>99533</v>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>hombres</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Minería</t>
-        </is>
-      </c>
-      <c r="B9">
+      <c r="S8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2">
         <v>32008</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>35615</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>33529</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>36005</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>40732</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>37142</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>37402</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>40585</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>41428</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>42604</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>48223</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <v>47345</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>50493</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <v>49890</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="2">
         <v>50747</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="2">
         <v>50327</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="2">
         <v>52324</v>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>hombres</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Servicios</t>
-        </is>
-      </c>
-      <c r="B10">
+      <c r="S9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2">
         <v>66279</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>73817</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>78747</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>76677</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>77976</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>84181</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>66498</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>72682</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>93986</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>66791</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>74100</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <v>73499</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <v>74228</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="2">
         <v>86666</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="2">
         <v>88505</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="2">
         <v>93591</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="2">
         <v>114287</v>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>hombres</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B11">
+      <c r="S10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2">
         <v>497272</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>531238</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>522271</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>515114</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>532661</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>537651</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>562172</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>580795</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>585384</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>593203</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>618610</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <v>610485</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <v>630512</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <v>646093</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="2">
         <v>685435</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="2">
         <v>691381</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="2">
         <v>681399</v>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>hombres</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Transporte  y  comunicaciones</t>
-        </is>
-      </c>
-      <c r="B12">
+      <c r="S11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2">
         <v>83196</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>89748</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>87977</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>90029</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>97469</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>102430</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>113893</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>115002</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>115109</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>121520</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>122988</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <v>122259</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="2">
         <v>119357</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="2">
         <v>123972</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="2">
         <v>127561</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="2">
         <v>127966</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="2">
         <v>121703</v>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>hombres</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Actividades  no  especiftcadas</t>
-        </is>
-      </c>
-      <c r="B13">
+      <c r="S12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2">
         <v>8105</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>5919</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>3996</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <v>1461</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>2145</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>3471</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <v>6750</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="2">
         <v>11996</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="2">
         <v>16492</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="2">
         <v>19108</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="2">
         <v>36121</v>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Agricultura  y  pesca</t>
-        </is>
-      </c>
-      <c r="B14">
+      <c r="S13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
         <v>6577</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>10094</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>12695</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>13337</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>10510</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>11855</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>13110</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>14774</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>14636</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>13710</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>14174</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <v>14023</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <v>14459</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="2">
         <v>16901</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="2">
         <v>19346</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="2">
         <v>19366</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="2">
         <v>16889</v>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Comercio</t>
-        </is>
-      </c>
-      <c r="B15">
+      <c r="S14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2">
         <v>28694</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>36036</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>41803</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>43449</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>48252</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>54785</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>70021</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>76350</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <v>91443</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>105723</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>114088</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <v>121151</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="2">
         <v>129415</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="2">
         <v>145354</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="2">
         <v>148857</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="2">
         <v>153648</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="2">
         <v>149708</v>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Construcción</t>
-        </is>
-      </c>
-      <c r="B16">
+      <c r="S15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
         <v>2942</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>3205</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>5583</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>3530</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>4050</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>4515</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>7527</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>7394</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>7265</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>9011</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <v>8584</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="2">
         <v>6939</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="2">
         <v>6493</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="2">
         <v>6927</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="2">
         <v>22801</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="2">
         <v>25508</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="2">
         <v>10586</v>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Electricidad,  gas  y  agua</t>
-        </is>
-      </c>
-      <c r="B17">
+      <c r="S16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
         <v>1232</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>1405</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>1468</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>1396</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>1461</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>1515</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>1903</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>1768</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="2">
         <v>1924</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <v>2347</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
         <v>2552</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="2">
         <v>2642</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="2">
         <v>2899</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="2">
         <v>2793</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="2">
         <v>2688</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="2">
         <v>3486</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="2">
         <v>3806</v>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Establecimientos  ftnancieros</t>
-        </is>
-      </c>
-      <c r="B18">
+      <c r="S17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2">
         <v>9478</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>10521</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>9711</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>10259</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>11882</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>13698</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>27238</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>27893</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <v>18062</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <v>37968</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <v>41165</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="2">
         <v>40462</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="2">
         <v>39515</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="2">
         <v>44609</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="2">
         <v>54834</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="2">
         <v>56085</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="2">
         <v>32550</v>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Industria</t>
-        </is>
-      </c>
-      <c r="B19">
+      <c r="S18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2">
         <v>15101</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>15794</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>14940</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>16036</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>15962</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>17214</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>20540</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>24449</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <v>21967</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <v>18797</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
         <v>21898</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="2">
         <v>23626</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="2">
         <v>24355</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="2">
         <v>28845</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="2">
         <v>30346</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="2">
         <v>30126</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="2">
         <v>29362</v>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Minería</t>
-        </is>
-      </c>
-      <c r="B20">
+      <c r="S19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2">
         <v>1102</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>1327</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>1245</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>1466</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>3876</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>2073</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>2508</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>2797</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="2">
         <v>2808</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="2">
         <v>2669</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="2">
         <v>3998</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="2">
         <v>3953</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="2">
         <v>3827</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="2">
         <v>3728</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="2">
         <v>3809</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="2">
         <v>10229</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="2">
         <v>10574</v>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Servicios</t>
-        </is>
-      </c>
-      <c r="B21">
+      <c r="S20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2">
         <v>39349</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>43962</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>55273</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>59467</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>62390</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>67443</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>78143</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>80182</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <v>93800</v>
       </c>
-      <c r="L21">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2">
         <v>88490</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="2">
         <v>89744</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="2">
         <v>102072</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="2">
         <v>114832</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="2">
         <v>126405</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="2">
         <v>140127</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="2">
         <v>172234</v>
       </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B22">
+      <c r="S21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2">
         <v>121658</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>138269</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>158080</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>161254</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>171045</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>186955</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <v>239079</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <v>256260</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <v>273187</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="2">
         <v>299162</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="2">
         <v>321993</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="2">
         <v>329737</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="2">
         <v>355258</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="2">
         <v>402141</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="2">
         <v>454520</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="2">
         <v>488064</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="2">
         <v>492947</v>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Transporte  y  comunicaciones</t>
-        </is>
-      </c>
-      <c r="B23">
+      <c r="S22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2">
         <v>9078</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>10006</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>11366</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>12314</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>12662</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>13857</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2">
         <v>18089</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <v>20653</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="2">
         <v>21282</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="2">
         <v>23124</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="2">
         <v>24899</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="2">
         <v>23726</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="2">
         <v>25473</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="2">
         <v>26156</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="2">
         <v>28942</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="2">
         <v>30381</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="2">
         <v>31117</v>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>mujeres</t>
-        </is>
+      <c r="S23" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
